--- a/public/file/contoh.xlsx
+++ b/public/file/contoh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ardy Muro\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\telkomsel-pwt\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Unik</t>
   </si>
@@ -56,7 +56,136 @@
     <t>Test123.</t>
   </si>
   <si>
-    <t>Kasmad12.-</t>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Special Program JPP</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>SOW</t>
+  </si>
+  <si>
+    <t>Program JPP 2023</t>
+  </si>
+  <si>
+    <t>Program JPP 2023 Simple</t>
+  </si>
+  <si>
+    <t>JPP Part</t>
+  </si>
+  <si>
+    <t>Remark JPP</t>
+  </si>
+  <si>
+    <t>ISD (m) to Tsel</t>
+  </si>
+  <si>
+    <t>ISD CAT TO TSEL</t>
+  </si>
+  <si>
+    <t>Site Terdekat</t>
+  </si>
+  <si>
+    <t>ISD (m) to TP</t>
+  </si>
+  <si>
+    <t>TP Id</t>
+  </si>
+  <si>
+    <t>TP Name</t>
+  </si>
+  <si>
+    <t>Kompetitor</t>
+  </si>
+  <si>
+    <t>ISD Usulan JPP</t>
+  </si>
+  <si>
+    <t>Luas HouseHold (km2)</t>
+  </si>
+  <si>
+    <t>MR Bad (&lt;=-105)</t>
+  </si>
+  <si>
+    <t>MR Good (&gt;-105)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percentage Bad MR</t>
+  </si>
+  <si>
+    <t>MR 4G Coverage</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Nama Desa</t>
+  </si>
+  <si>
+    <t>Nama Kecamatan</t>
+  </si>
+  <si>
+    <t>Nama Pulau</t>
+  </si>
+  <si>
+    <t>Nama Kabupaten</t>
+  </si>
+  <si>
+    <t>Komitment Revenue (Branch)</t>
+  </si>
+  <si>
+    <t>Potensi NS/Branch</t>
+  </si>
+  <si>
+    <t>Arpu Kecamatan</t>
+  </si>
+  <si>
+    <t>Rank RTPE</t>
+  </si>
+  <si>
+    <t>Priority Final Regional</t>
+  </si>
+  <si>
+    <t>Rank per NS/Branch</t>
+  </si>
+  <si>
+    <t>Priority SRM</t>
+  </si>
+  <si>
+    <t>Rank Regional</t>
+  </si>
+  <si>
+    <t>ISD CAT To TP</t>
+  </si>
+  <si>
+    <t>ISD (m) To Competitor</t>
+  </si>
+  <si>
+    <t>ISD CAT To Competitor</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Id Desa</t>
+  </si>
+  <si>
+    <t>REG REV Projection (Update 3 Oct 2021)</t>
+  </si>
+  <si>
+    <t>REV CAT (Priority)</t>
   </si>
 </sst>
 </file>
@@ -92,24 +221,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -385,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AU9" sqref="AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,38 +518,194 @@
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" customWidth="1"/>
+    <col min="28" max="28" width="11" customWidth="1"/>
+    <col min="29" max="29" width="10" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="10.85546875" customWidth="1"/>
+    <col min="43" max="43" width="10.42578125" customWidth="1"/>
+    <col min="44" max="44" width="11.28515625" customWidth="1"/>
+    <col min="45" max="45" width="20.5703125" customWidth="1"/>
+    <col min="46" max="46" width="13.140625" customWidth="1"/>
+    <col min="48" max="49" width="12.42578125" customWidth="1"/>
+    <col min="50" max="50" width="12.5703125" customWidth="1"/>
+    <col min="54" max="54" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:54" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -450,34 +727,146 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3">
-        <v>788</v>
+      <c r="R2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2">
+        <v>100</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2">
+        <v>100</v>
+      </c>
+      <c r="AG2">
+        <v>100</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY2">
+        <v>23</v>
+      </c>
+      <c r="AZ2">
+        <v>23</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/contoh.xlsx
+++ b/public/file/contoh.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
   <si>
     <t>Unik</t>
   </si>
@@ -186,19 +186,180 @@
   </si>
   <si>
     <t>REV CAT (Priority)</t>
+  </si>
+  <si>
+    <t>Pre Survey Potensi Power</t>
+  </si>
+  <si>
+    <t>PLN</t>
+  </si>
+  <si>
+    <t>Assessment LOS</t>
+  </si>
+  <si>
+    <t>Site Id Far End</t>
+  </si>
+  <si>
+    <t>Config FE</t>
+  </si>
+  <si>
+    <t>Minimal LOS</t>
+  </si>
+  <si>
+    <t>Simple Transport</t>
+  </si>
+  <si>
+    <t>Urutan Kandidat</t>
+  </si>
+  <si>
+    <t>Lat Kandidat</t>
+  </si>
+  <si>
+    <t>Distance to NOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA, Potensi Community Case </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposed RF Collo TP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alamat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azimuth </t>
+  </si>
+  <si>
+    <t>Tipe RF</t>
+  </si>
+  <si>
+    <t>Tipe RRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Tilt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E Tilt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah Sector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower Height </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azimuth NE </t>
+  </si>
+  <si>
+    <t>Site ID FE</t>
+  </si>
+  <si>
+    <t>Site Name FE</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Diameter Ant NE-FE</t>
+  </si>
+  <si>
+    <t>Ant NE-FE</t>
+  </si>
+  <si>
+    <t>Minimum LOS (NE/FE)</t>
+  </si>
+  <si>
+    <t>LOS/NLOS</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Long Kandidat</t>
+  </si>
+  <si>
+    <t>DRM Date</t>
+  </si>
+  <si>
+    <t>DRM Status</t>
+  </si>
+  <si>
+    <t>E-DRM Date</t>
+  </si>
+  <si>
+    <t>No. KOM/KKST</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Tanggal KOM</t>
+  </si>
+  <si>
+    <t>CP EQP</t>
+  </si>
+  <si>
+    <t>Pre Sales</t>
+  </si>
+  <si>
+    <t>Aging</t>
+  </si>
+  <si>
+    <t>Batch Final</t>
+  </si>
+  <si>
+    <t>Detail Progress (dari Project Deployment)</t>
+  </si>
+  <si>
+    <t>Need Form Survey</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Progress (simple)</t>
+  </si>
+  <si>
+    <t>Need Support ke Management</t>
+  </si>
+  <si>
+    <t>2022-10-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,17 +379,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -506,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:CY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AU9" sqref="AU9"/>
+    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
+      <selection activeCell="CS3" sqref="CS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,20 +692,34 @@
     <col min="27" max="27" width="11.42578125" customWidth="1"/>
     <col min="28" max="28" width="11" customWidth="1"/>
     <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" customWidth="1"/>
     <col min="35" max="35" width="11.7109375" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" customWidth="1"/>
     <col min="42" max="42" width="10.85546875" customWidth="1"/>
     <col min="43" max="43" width="10.42578125" customWidth="1"/>
     <col min="44" max="44" width="11.28515625" customWidth="1"/>
     <col min="45" max="45" width="20.5703125" customWidth="1"/>
-    <col min="46" max="46" width="13.140625" customWidth="1"/>
+    <col min="46" max="46" width="17.140625" customWidth="1"/>
     <col min="48" max="49" width="12.42578125" customWidth="1"/>
     <col min="50" max="50" width="12.5703125" customWidth="1"/>
-    <col min="54" max="54" width="11" customWidth="1"/>
+    <col min="54" max="54" width="13.42578125" customWidth="1"/>
+    <col min="55" max="55" width="15.85546875" customWidth="1"/>
+    <col min="66" max="66" width="15.5703125" customWidth="1"/>
+    <col min="67" max="67" width="12" customWidth="1"/>
+    <col min="84" max="84" width="12.28515625" customWidth="1"/>
+    <col min="85" max="85" width="12" customWidth="1"/>
+    <col min="86" max="86" width="12.5703125" customWidth="1"/>
+    <col min="87" max="87" width="10.140625" customWidth="1"/>
+    <col min="89" max="89" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.42578125" customWidth="1"/>
+    <col min="94" max="94" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="15" customWidth="1"/>
+    <col min="101" max="101" width="20.42578125" customWidth="1"/>
+    <col min="102" max="102" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:103" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +882,155 @@
       <c r="BB1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -866,10 +1191,158 @@
         <v>9</v>
       </c>
       <c r="BB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO2">
+        <v>123</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV2">
+        <v>123</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB2">
+        <v>123</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CL2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/file/contoh.xlsx
+++ b/public/file/contoh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
   <si>
     <t>Unik</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>SOW Infra</t>
+  </si>
+  <si>
+    <t>b2s</t>
   </si>
 </sst>
 </file>
@@ -670,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY2"/>
+  <dimension ref="A1:CZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
-      <selection activeCell="CS3" sqref="CS3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,38 +694,38 @@
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" customWidth="1"/>
-    <col min="28" max="28" width="11" customWidth="1"/>
-    <col min="29" max="29" width="10" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" customWidth="1"/>
-    <col min="35" max="35" width="11.7109375" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" customWidth="1"/>
-    <col min="42" max="42" width="10.85546875" customWidth="1"/>
-    <col min="43" max="43" width="10.42578125" customWidth="1"/>
-    <col min="44" max="44" width="11.28515625" customWidth="1"/>
-    <col min="45" max="45" width="20.5703125" customWidth="1"/>
-    <col min="46" max="46" width="17.140625" customWidth="1"/>
-    <col min="48" max="49" width="12.42578125" customWidth="1"/>
-    <col min="50" max="50" width="12.5703125" customWidth="1"/>
-    <col min="54" max="54" width="13.42578125" customWidth="1"/>
-    <col min="55" max="55" width="15.85546875" customWidth="1"/>
-    <col min="66" max="66" width="15.5703125" customWidth="1"/>
-    <col min="67" max="67" width="12" customWidth="1"/>
-    <col min="84" max="84" width="12.28515625" customWidth="1"/>
-    <col min="85" max="85" width="12" customWidth="1"/>
-    <col min="86" max="86" width="12.5703125" customWidth="1"/>
-    <col min="87" max="87" width="10.140625" customWidth="1"/>
-    <col min="89" max="89" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.42578125" customWidth="1"/>
-    <col min="94" max="94" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="15" customWidth="1"/>
-    <col min="101" max="101" width="20.42578125" customWidth="1"/>
-    <col min="102" max="102" width="12" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" customWidth="1"/>
+    <col min="29" max="29" width="11" customWidth="1"/>
+    <col min="30" max="30" width="10" customWidth="1"/>
+    <col min="32" max="32" width="12.28515625" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.85546875" customWidth="1"/>
+    <col min="44" max="44" width="10.42578125" customWidth="1"/>
+    <col min="45" max="45" width="11.28515625" customWidth="1"/>
+    <col min="46" max="46" width="20.5703125" customWidth="1"/>
+    <col min="47" max="47" width="17.140625" customWidth="1"/>
+    <col min="49" max="50" width="12.42578125" customWidth="1"/>
+    <col min="51" max="51" width="12.5703125" customWidth="1"/>
+    <col min="55" max="55" width="13.42578125" customWidth="1"/>
+    <col min="56" max="56" width="15.85546875" customWidth="1"/>
+    <col min="67" max="67" width="15.5703125" customWidth="1"/>
+    <col min="68" max="68" width="12" customWidth="1"/>
+    <col min="85" max="85" width="12.28515625" customWidth="1"/>
+    <col min="86" max="86" width="12" customWidth="1"/>
+    <col min="87" max="87" width="12.5703125" customWidth="1"/>
+    <col min="88" max="88" width="10.140625" customWidth="1"/>
+    <col min="90" max="90" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="12.42578125" customWidth="1"/>
+    <col min="95" max="95" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="15" customWidth="1"/>
+    <col min="102" max="102" width="20.42578125" customWidth="1"/>
+    <col min="103" max="103" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,277 +766,280 @@
         <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -1079,12 +1088,12 @@
       <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
       <c r="S2" t="s">
         <v>9</v>
       </c>
@@ -1103,12 +1112,12 @@
       <c r="X2" t="s">
         <v>9</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z2">
         <v>100</v>
       </c>
-      <c r="Z2" t="s">
-        <v>9</v>
-      </c>
       <c r="AA2" t="s">
         <v>9</v>
       </c>
@@ -1124,14 +1133,14 @@
       <c r="AE2" t="s">
         <v>9</v>
       </c>
-      <c r="AF2">
-        <v>100</v>
+      <c r="AF2" t="s">
+        <v>9</v>
       </c>
       <c r="AG2">
         <v>100</v>
       </c>
-      <c r="AH2" t="s">
-        <v>9</v>
+      <c r="AH2">
+        <v>100</v>
       </c>
       <c r="AI2" t="s">
         <v>9</v>
@@ -1181,14 +1190,14 @@
       <c r="AX2" t="s">
         <v>9</v>
       </c>
-      <c r="AY2">
-        <v>23</v>
+      <c r="AY2" t="s">
+        <v>9</v>
       </c>
       <c r="AZ2">
         <v>23</v>
       </c>
-      <c r="BA2" t="s">
-        <v>9</v>
+      <c r="BA2">
+        <v>23</v>
       </c>
       <c r="BB2" t="s">
         <v>9</v>
@@ -1229,12 +1238,12 @@
       <c r="BN2" t="s">
         <v>9</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2">
         <v>123</v>
       </c>
-      <c r="BP2" t="s">
-        <v>9</v>
-      </c>
       <c r="BQ2" t="s">
         <v>9</v>
       </c>
@@ -1250,12 +1259,12 @@
       <c r="BU2" t="s">
         <v>9</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2">
         <v>123</v>
       </c>
-      <c r="BW2" t="s">
-        <v>9</v>
-      </c>
       <c r="BX2" t="s">
         <v>9</v>
       </c>
@@ -1268,12 +1277,12 @@
       <c r="CA2" t="s">
         <v>9</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC2">
         <v>123</v>
       </c>
-      <c r="CC2" t="s">
-        <v>9</v>
-      </c>
       <c r="CD2" t="s">
         <v>9</v>
       </c>
@@ -1295,14 +1304,14 @@
       <c r="CJ2" t="s">
         <v>9</v>
       </c>
-      <c r="CK2" s="2" t="s">
-        <v>103</v>
+      <c r="CK2" t="s">
+        <v>9</v>
       </c>
       <c r="CL2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="CM2" t="s">
-        <v>9</v>
+      <c r="CM2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="CN2" t="s">
         <v>9</v>
@@ -1310,12 +1319,12 @@
       <c r="CO2" t="s">
         <v>9</v>
       </c>
-      <c r="CP2" s="2" t="s">
+      <c r="CP2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="CQ2" t="s">
-        <v>9</v>
-      </c>
       <c r="CR2" t="s">
         <v>9</v>
       </c>
@@ -1338,6 +1347,9 @@
         <v>9</v>
       </c>
       <c r="CY2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/public/file/contoh.xlsx
+++ b/public/file/contoh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="107">
   <si>
     <t>Unik</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>b2s</t>
+  </si>
+  <si>
+    <t>ISD CAT</t>
   </si>
 </sst>
 </file>
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CZ2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,35 +700,35 @@
     <col min="27" max="27" width="13.140625" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" customWidth="1"/>
     <col min="29" max="29" width="11" customWidth="1"/>
-    <col min="30" max="30" width="10" customWidth="1"/>
-    <col min="32" max="32" width="12.28515625" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" customWidth="1"/>
-    <col min="43" max="43" width="10.85546875" customWidth="1"/>
-    <col min="44" max="44" width="10.42578125" customWidth="1"/>
-    <col min="45" max="45" width="11.28515625" customWidth="1"/>
-    <col min="46" max="46" width="20.5703125" customWidth="1"/>
-    <col min="47" max="47" width="17.140625" customWidth="1"/>
-    <col min="49" max="50" width="12.42578125" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="55" max="55" width="13.42578125" customWidth="1"/>
-    <col min="56" max="56" width="15.85546875" customWidth="1"/>
-    <col min="67" max="67" width="15.5703125" customWidth="1"/>
-    <col min="68" max="68" width="12" customWidth="1"/>
-    <col min="85" max="85" width="12.28515625" customWidth="1"/>
-    <col min="86" max="86" width="12" customWidth="1"/>
-    <col min="87" max="87" width="12.5703125" customWidth="1"/>
-    <col min="88" max="88" width="10.140625" customWidth="1"/>
-    <col min="90" max="90" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="12.42578125" customWidth="1"/>
-    <col min="95" max="95" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="15" customWidth="1"/>
-    <col min="102" max="102" width="20.42578125" customWidth="1"/>
-    <col min="103" max="103" width="12" customWidth="1"/>
+    <col min="30" max="31" width="10" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="10.85546875" customWidth="1"/>
+    <col min="45" max="45" width="10.42578125" customWidth="1"/>
+    <col min="46" max="46" width="11.28515625" customWidth="1"/>
+    <col min="47" max="47" width="20.5703125" customWidth="1"/>
+    <col min="48" max="48" width="17.140625" customWidth="1"/>
+    <col min="50" max="51" width="12.42578125" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" customWidth="1"/>
+    <col min="56" max="56" width="13.42578125" customWidth="1"/>
+    <col min="57" max="57" width="15.85546875" customWidth="1"/>
+    <col min="68" max="68" width="15.5703125" customWidth="1"/>
+    <col min="69" max="69" width="12" customWidth="1"/>
+    <col min="86" max="86" width="12.28515625" customWidth="1"/>
+    <col min="87" max="87" width="12" customWidth="1"/>
+    <col min="88" max="88" width="12.5703125" customWidth="1"/>
+    <col min="89" max="89" width="10.140625" customWidth="1"/>
+    <col min="91" max="91" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="12.42578125" customWidth="1"/>
+    <col min="96" max="96" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15" customWidth="1"/>
+    <col min="103" max="103" width="20.42578125" customWidth="1"/>
+    <col min="104" max="104" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,229 +820,232 @@
         <v>26</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1136,14 +1142,14 @@
       <c r="AF2" t="s">
         <v>9</v>
       </c>
-      <c r="AG2">
-        <v>100</v>
+      <c r="AG2" t="s">
+        <v>9</v>
       </c>
       <c r="AH2">
         <v>100</v>
       </c>
-      <c r="AI2" t="s">
-        <v>9</v>
+      <c r="AI2">
+        <v>100</v>
       </c>
       <c r="AJ2" t="s">
         <v>9</v>
@@ -1193,14 +1199,14 @@
       <c r="AY2" t="s">
         <v>9</v>
       </c>
-      <c r="AZ2">
-        <v>23</v>
+      <c r="AZ2" t="s">
+        <v>9</v>
       </c>
       <c r="BA2">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
-        <v>9</v>
+      <c r="BB2">
+        <v>23</v>
       </c>
       <c r="BC2" t="s">
         <v>9</v>
@@ -1241,12 +1247,12 @@
       <c r="BO2" t="s">
         <v>9</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ2">
         <v>123</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>9</v>
-      </c>
       <c r="BR2" t="s">
         <v>9</v>
       </c>
@@ -1262,12 +1268,12 @@
       <c r="BV2" t="s">
         <v>9</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX2">
         <v>123</v>
       </c>
-      <c r="BX2" t="s">
-        <v>9</v>
-      </c>
       <c r="BY2" t="s">
         <v>9</v>
       </c>
@@ -1280,12 +1286,12 @@
       <c r="CB2" t="s">
         <v>9</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD2">
         <v>123</v>
       </c>
-      <c r="CD2" t="s">
-        <v>9</v>
-      </c>
       <c r="CE2" t="s">
         <v>9</v>
       </c>
@@ -1307,14 +1313,14 @@
       <c r="CK2" t="s">
         <v>9</v>
       </c>
-      <c r="CL2" s="2" t="s">
-        <v>103</v>
+      <c r="CL2" t="s">
+        <v>9</v>
       </c>
       <c r="CM2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="CN2" t="s">
-        <v>9</v>
+      <c r="CN2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="CO2" t="s">
         <v>9</v>
@@ -1322,12 +1328,12 @@
       <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="CQ2" s="2" t="s">
+      <c r="CQ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR2" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="CR2" t="s">
-        <v>9</v>
-      </c>
       <c r="CS2" t="s">
         <v>9</v>
       </c>
@@ -1350,6 +1356,9 @@
         <v>9</v>
       </c>
       <c r="CZ2" t="s">
+        <v>9</v>
+      </c>
+      <c r="DA2" t="s">
         <v>9</v>
       </c>
     </row>
